--- a/test.xlsx
+++ b/test.xlsx
@@ -23,9 +23,101 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+  <si>
+    <t>Provided</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Hidden Single</t>
+  </si>
+  <si>
+    <t>Single/Hidden Single</t>
+  </si>
+  <si>
+    <t>2,5,6</t>
+  </si>
+  <si>
+    <t>5,9</t>
+  </si>
+  <si>
+    <t>2,6,7,9</t>
+  </si>
+  <si>
+    <t>2,5,6,7,9</t>
+  </si>
+  <si>
+    <t>5,6,9</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>2,4,5</t>
+  </si>
+  <si>
+    <t>2,4,5,9</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>1,2,6</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>2,6</t>
+  </si>
+  <si>
+    <t>2,4</t>
+  </si>
+  <si>
+    <t>6,9</t>
+  </si>
+  <si>
+    <t>5,7</t>
+  </si>
+  <si>
+    <t>2,4,6,7</t>
+  </si>
+  <si>
+    <t>2,6,7</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
+    <t>2,4,7,9</t>
+  </si>
+  <si>
+    <t>2,5,7,9</t>
+  </si>
+  <si>
+    <t>3,5,9</t>
+  </si>
+  <si>
+    <t>2,4,7</t>
+  </si>
+  <si>
+    <t>1,2,4,7</t>
+  </si>
+  <si>
+    <t>1,3,4</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,6 +129,27 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,61 +255,107 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,199 +637,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="3.77734375" customWidth="1"/>
+    <col min="1" max="9" width="5.5546875" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="10">
+    <row r="1" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="13">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="16">
+      <c r="C1" s="7">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8">
+        <v>8</v>
+      </c>
+      <c r="E1" s="9">
         <v>7</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="13">
+      <c r="F1" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="7">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+    <row r="2" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="13">
         <v>8</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="12">
+      <c r="C2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="13">
         <v>6</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="12">
+      <c r="F2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="13">
         <v>3</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>7</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="14">
+    <row r="3" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="20">
         <v>1</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="21">
         <v>3</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="14">
+      <c r="F3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="20">
         <v>8</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+    <row r="4" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>8</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="22">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="23">
         <v>9</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="24">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="22">
         <v>6</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="5">
         <v>7</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="24">
         <v>4</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="7">
         <v>5</v>
       </c>
+      <c r="K4" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+    <row r="5" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="25">
         <v>4</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="26">
         <v>7</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="27">
         <v>3</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="13">
         <v>2</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>8</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="27">
         <v>6</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="13">
         <v>9</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="15">
+    <row r="6" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="28">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="21">
         <v>4</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7">
+      <c r="F6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="29">
         <v>2</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="30">
         <v>8</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="31">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="16">
+    <row r="7" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="32">
+        <v>1</v>
+      </c>
+      <c r="C7" s="33">
+        <v>8</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="9">
         <v>5</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="10">
+      <c r="F7" s="33">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5">
         <v>9</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="9">
         <v>7</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="12">
+    <row r="8" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="13">
         <v>9</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="12">
+      <c r="F8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="13">
         <v>5</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="35">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="14">
+    <row r="9" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="20">
         <v>6</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="30">
         <v>8</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="9"/>
+      <c r="F9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
